--- a/Hypothesis/hypo_pos_51_52_61_export_service.xlsx
+++ b/Hypothesis/hypo_pos_51_52_61_export_service.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="340" yWindow="660" windowWidth="24960" windowHeight="13540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hypo_pos_51_52_61_export_servic" sheetId="1" r:id="rId1"/>
@@ -461,9 +461,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -662,7 +668,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
